--- a/biology/Zoologie/Grandisonia_sechellensis/Grandisonia_sechellensis.xlsx
+++ b/biology/Zoologie/Grandisonia_sechellensis/Grandisonia_sechellensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandisonia sechellensis est une espèce de gymnophiones de la famille des Indotyphlidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandisonia sechellensis est une espèce de gymnophiones de la famille des Indotyphlidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre dans les îles de Mahé, de Praslin et de Silhouette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre dans les îles de Mahé, de Praslin et de Silhouette.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de sechelle et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1911 : List of the batrachians and reptiles obtained by Prof. Stanley Gardiner on his second expedition to the Seychelles and Aldabra. Transactions of the Linnean Society of London, ser. 2, vol. 14, p. 375-378 (texte intégral).</t>
         </is>
